--- a/storage/app/excel/child_diary.xlsx
+++ b/storage/app/excel/child_diary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>001-保育園</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>保育日誌</t>
+  </si>
+  <si>
+    <t>天気：</t>
   </si>
   <si>
     <t>0歳児クラス</t>
@@ -77,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -118,14 +121,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,19 +164,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,17 +187,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,46 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,10 +218,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,43 +303,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,25 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,37 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,74 +487,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -545,21 +548,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,15 +638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -704,6 +683,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -727,31 +726,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,134 +749,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,8 +928,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,46 +946,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1313,7 +1307,7 @@
   <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="J3" sqref="J3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1350,7 +1344,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:30">
+    <row r="2" spans="1:30">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1382,7 +1376,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" ht="15.75" spans="1:30">
+    <row r="3" spans="1:30">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1394,7 +1388,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1404,21 +1398,21 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="18" t="s">
+      <c r="U3" s="21"/>
+      <c r="V3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="18" t="s">
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="19"/>
+      <c r="AB3" s="21"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
@@ -1434,25 +1428,27 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="J4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="22"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="24"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
@@ -1476,15 +1472,15 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="25"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="27"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
@@ -1508,15 +1504,15 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="27"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="29"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
@@ -1524,7 +1520,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1621,17 +1617,17 @@
     <row r="10" spans="1:30">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1644,7 +1640,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -1861,13 +1857,13 @@
     <row r="17" spans="1:30">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1879,20 +1875,20 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="29" t="s">
-        <v>13</v>
+      <c r="Q17" s="31" t="s">
+        <v>14</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="31"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="33"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
@@ -2027,7 +2023,7 @@
     <row r="22" spans="1:30">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2054,7 +2050,7 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
-      <c r="AB22" s="32"/>
+      <c r="AB22" s="34"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
@@ -2086,14 +2082,14 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="33"/>
+      <c r="AB23" s="35"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2120,7 +2116,7 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
-      <c r="AB24" s="32"/>
+      <c r="AB24" s="34"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
@@ -2152,7 +2148,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="33"/>
+      <c r="AB25" s="35"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
@@ -2223,7 +2219,7 @@
     <row r="28" spans="1:30">
       <c r="A28" s="1"/>
       <c r="B28" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2513,7 +2509,7 @@
     <row r="37" spans="1:30">
       <c r="A37" s="1"/>
       <c r="B37" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2865,11 +2861,13 @@
       <c r="AD47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F10:P10"/>
     <mergeCell ref="Q10:AB10"/>

--- a/storage/app/excel/child_diary.xlsx
+++ b/storage/app/excel/child_diary.xlsx
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -128,7 +128,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,44 +189,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +212,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,48 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,11 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +659,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +688,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,36 +726,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,130 +749,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,7 +899,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,16 +914,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -980,10 +980,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1306,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/storage/app/excel/child_diary.xlsx
+++ b/storage/app/excel/child_diary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\新しいフォルダー (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E3EC9-893E-4A1E-813F-C1CE3B58DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6746D3-1225-4939-BC1B-5948411BA59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="28410" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1830" windowWidth="28410" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>001-保育園</t>
-  </si>
   <si>
     <t>園長</t>
   </si>
@@ -90,6 +87,10 @@
   <si>
     <t>主任・副主任
 保育リーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001-保育園</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,9 +387,114 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,111 +505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,9 +787,7 @@
   </sheetPr>
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="75" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="75" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -862,86 +861,86 @@
     </row>
     <row r="3" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
+      <c r="B3" s="1"/>
+      <c r="C3" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="8"/>
+      <c r="AB3" s="43"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="45" t="s">
-        <v>3</v>
+      <c r="C4" s="40" t="s">
+        <v>2</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="13"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="21"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -956,24 +955,24 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="15"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -988,26 +987,26 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
+      <c r="C7" s="26" t="s">
+        <v>4</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1101,144 +1100,144 @@
     <row r="10" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="18">
+      <c r="B11" s="37">
         <v>0</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="37">
         <v>0</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="37"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="13"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="39"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="39"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="16"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
@@ -1248,29 +1247,29 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="39"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="16"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
@@ -1280,29 +1279,29 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="42"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="19"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
@@ -1340,299 +1339,299 @@
     </row>
     <row r="17" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="30" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31" t="s">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-    </row>
-    <row r="19" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="1:30" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="1:30" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="32"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="35"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
@@ -1702,227 +1701,227 @@
     </row>
     <row r="28" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="16" t="s">
-        <v>16</v>
+      <c r="B28" s="28" t="s">
+        <v>15</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
     <row r="29" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
     <row r="31" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
     <row r="32" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
     <row r="34" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
@@ -1992,259 +1991,259 @@
     </row>
     <row r="37" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="16" t="s">
-        <v>17</v>
+      <c r="B37" s="28" t="s">
+        <v>16</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
     <row r="41" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
     <row r="42" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
     <row r="43" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
     <row r="44" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
@@ -2346,24 +2345,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F17:P17"/>
-    <mergeCell ref="Q17:AB17"/>
-    <mergeCell ref="F11:P15"/>
-    <mergeCell ref="Q11:AB15"/>
-    <mergeCell ref="T4:U5"/>
-    <mergeCell ref="V4:Z5"/>
-    <mergeCell ref="AA4:AB5"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B30:AB34"/>
-    <mergeCell ref="B37:AB38"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="C3:I3"/>
     <mergeCell ref="B39:AB44"/>
     <mergeCell ref="B22:E23"/>
     <mergeCell ref="F22:AB23"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="F24:AB25"/>
     <mergeCell ref="B28:AB29"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B30:AB34"/>
+    <mergeCell ref="B37:AB38"/>
     <mergeCell ref="B17:E21"/>
     <mergeCell ref="F18:P21"/>
     <mergeCell ref="Q18:AB21"/>
@@ -2375,12 +2369,17 @@
     <mergeCell ref="F10:P10"/>
     <mergeCell ref="Q10:AB10"/>
     <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="F17:P17"/>
+    <mergeCell ref="Q17:AB17"/>
+    <mergeCell ref="F11:P15"/>
+    <mergeCell ref="Q11:AB15"/>
+    <mergeCell ref="T4:U5"/>
+    <mergeCell ref="V4:Z5"/>
+    <mergeCell ref="AA4:AB5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="41" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/app/excel/child_diary.xlsx
+++ b/storage/app/excel/child_diary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LK_sources\storage\app\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD5B35E-F6DD-4457-AC1A-1D37B66A1A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3FF57-2A23-40BF-94D1-99C217B83E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="330" windowWidth="26280" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="450" windowWidth="21600" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$27</definedName>
   </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>園長</t>
   </si>
@@ -48,6 +48,9 @@
     <t>保育日誌</t>
   </si>
   <si>
+    <t>0歳児</t>
+  </si>
+  <si>
     <t>在籍</t>
   </si>
   <si>
@@ -86,38 +89,12 @@
     <t>備　　　　　考</t>
   </si>
   <si>
+    <t>もりのなかま保育園</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>天気：</t>
-    <rPh sb="0" eb="2">
-      <t>テンキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>保育園名</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクエン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>歳児</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>年/月/日</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -146,21 +123,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF212529"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -182,6 +146,19 @@
     <font>
       <sz val="20"/>
       <color rgb="FF212529"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -208,13 +185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBCB42"/>
+        <fgColor rgb="FFD5E3CB"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5E3CB"/>
+        <fgColor rgb="FFEBCB42"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -243,6 +220,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -252,13 +253,42 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -292,7 +322,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -300,14 +332,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -326,63 +360,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -405,22 +382,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -429,131 +406,131 @@
     <xf numFmtId="31" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,9 +839,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -882,16 +859,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="F1" s="12"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7" t="s">
         <v>0</v>
@@ -906,40 +881,40 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -968,53 +943,53 @@
     </row>
     <row r="6" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="28" t="s">
+      <c r="E6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -1023,12 +998,12 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
@@ -1047,68 +1022,68 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="35" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
+    <row r="13" spans="1:12" ht="136.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+    <row r="14" spans="1:12" ht="205.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
@@ -1141,256 +1116,196 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="A17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+    <row r="21" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+    <row r="22" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+    <row r="23" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+    <row r="24" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+    <row r="25" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+    <row r="27" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+    <row r="28" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+    <row r="29" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="A26:J30"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J22"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="H6:J6"/>
@@ -1407,20 +1322,24 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J20"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="9" man="1"/>
+    <brk id="28" max="11" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="32" man="1"/>
+    <brk id="10" max="26" man="1"/>
   </colBreaks>
 </worksheet>
 </file>